--- a/tests/testthat/sheets/missing-v-node.xlsx
+++ b/tests/testthat/sheets/missing-v-node.xlsx
@@ -165,7 +165,7 @@
       <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="1" t="str">
         <f>A2 + B2</f>
       </c>
     </row>
